--- a/자료/부품 리스트/부품리스트.xlsx
+++ b/자료/부품 리스트/부품리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbahn\Desktop\개인자료\Workspace\Python Workspace\고등학교 졸업과제\2학기\자료\부품 리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476D9B1-68A8-4BEF-9E1A-8972B144BD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E29246-4D27-40E5-9148-B0C24E97BD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="3045" windowWidth="20730" windowHeight="11160" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="부품 리스트" sheetId="1" r:id="rId1"/>
@@ -297,213 +297,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>서보모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/1426305858?lowest_yn=Y&amp;catalog_no=15021225&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>S-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군제 스프레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12362456</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/2904512765?lowest_yn=Y&amp;catalog_no=32906702&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>tc-320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 미니어쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔디 가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번, 3번, 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/2269298663?trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/1290960460?trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>2.5mm 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=9108</t>
+  </si>
+  <si>
+    <t>록타이드 20g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간접착제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/2422862043?trTypeCd=PW24&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>펜형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열선 커터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1151118</t>
+  </si>
+  <si>
+    <t>15x40M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스킹 테이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
+  </si>
+  <si>
+    <t>암수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점퍼 케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=11872253</t>
+  </si>
+  <si>
+    <t>TJM-Z05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트나이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1245596</t>
+  </si>
+  <si>
+    <t>아두이노 우노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우노 호환보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1360145</t>
+  </si>
+  <si>
+    <t>KE0092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP3 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1278962</t>
+  </si>
+  <si>
+    <t>2개입 홀더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 홀더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1322408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레드 보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDML 케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/products/3005646305?trTypeCd=21&amp;trCtgrNo=585021</t>
+  </si>
+  <si>
+    <t>라즈베리파이 제로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1360850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM-S2006MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1324845</t>
-  </si>
-  <si>
-    <t>DM-S2006MD</t>
-  </si>
-  <si>
-    <t>서보모터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/1426305858?lowest_yn=Y&amp;catalog_no=15021225&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>S-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군제 스프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연회색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12362456</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/2904512765?lowest_yn=Y&amp;catalog_no=32906702&amp;trTypeCd=PW51&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>tc-320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 미니어쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔디 가루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번, 3번, 5번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/2269298663?trTypeCd=21&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/1290960460?trTypeCd=PW24&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>2.5mm 검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=9108</t>
-  </si>
-  <si>
-    <t>록타이드 20g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순간접착제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/2422862043?trTypeCd=PW24&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>펜형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열선 커터기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1151118</t>
-  </si>
-  <si>
-    <t>15x40M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스킹 테이프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
-  </si>
-  <si>
-    <t>암수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점퍼 케이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=11872253</t>
-  </si>
-  <si>
-    <t>TJM-Z05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아트나이프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1245596</t>
-  </si>
-  <si>
-    <t>아두이노 우노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우노 호환보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1360145</t>
-  </si>
-  <si>
-    <t>KE0092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP3 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1278962</t>
-  </si>
-  <si>
-    <t>2개입 홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배터리 홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1322408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>830핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레드 보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDML 케이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/products/3005646305?trTypeCd=21&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>라즈베리파이 제로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1360850</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +967,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,10 +984,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1035,10 +1037,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2">
         <v>27000</v>
@@ -1057,7 +1059,7 @@
         <v>29700</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,10 +1091,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="11">
         <v>5180</v>
@@ -1111,15 +1113,15 @@
         <v>5180</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="2">
         <v>16100</v>
@@ -1137,8 +1139,8 @@
         <f t="shared" ref="G6:G15" si="0">C6*D6+E6+F6*D6</f>
         <v>35420</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>85</v>
+      <c r="H6" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,10 +1172,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2">
         <v>6500</v>
@@ -1192,15 +1194,15 @@
         <v>7150</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2">
         <v>4800</v>
@@ -1219,15 +1221,15 @@
         <v>5280</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2">
         <v>1600</v>
@@ -1246,15 +1248,15 @@
         <v>1760</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2">
         <v>1500</v>
@@ -1273,15 +1275,15 @@
         <v>1650</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2">
         <v>850</v>
@@ -1300,15 +1302,15 @@
         <v>935</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>850</v>
@@ -1327,15 +1329,15 @@
         <v>935</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="C14" s="2">
         <v>850</v>
@@ -1354,7 +1356,7 @@
         <v>935</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,10 +1530,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2">
         <v>400</v>
@@ -1550,15 +1552,15 @@
         <v>4500</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2">
         <v>4500</v>
@@ -1577,15 +1579,15 @@
         <v>7000</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2">
         <v>1500</v>
@@ -1604,15 +1606,15 @@
         <v>4000</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2">
         <v>8400</v>
@@ -1631,15 +1633,15 @@
         <v>19300</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2">
         <v>1680</v>
@@ -1658,7 +1660,7 @@
         <v>3732</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1672,10 +1674,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="15">
         <v>3990</v>
@@ -1694,15 +1696,15 @@
         <v>4389</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2">
         <v>22450</v>
@@ -1721,15 +1723,15 @@
         <v>25450</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2">
         <v>2200</v>
@@ -1748,15 +1750,15 @@
         <v>9680</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2">
         <v>900</v>
@@ -1775,7 +1777,7 @@
         <v>2970</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2157,9 +2159,10 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F3860141-D470-423F-85F1-2BEB38B2FBA7}"/>
     <hyperlink ref="H11" r:id="rId2" xr:uid="{0DA4EB99-E360-49BF-8C71-2B547F6C833A}"/>
     <hyperlink ref="H3" r:id="rId3" xr:uid="{9EE31022-31B2-42C4-9C8E-1D0B60F1E4B3}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{DC230801-9E19-441D-AAC5-0239FD28ECB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
